--- a/07_bin_packing_problem/04_test_results/BPP_results.xlsx
+++ b/07_bin_packing_problem/04_test_results/BPP_results.xlsx
@@ -8,8 +8,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_times" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="scores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cat_scores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mlp_scores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ws_scores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mlp_cat_scores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ws_cat_scores" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,17 +460,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>41m, 28s</t>
+          <t>7m, 48s</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1h, 9m</t>
+          <t>11m, 35s</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3s</t>
+          <t>0s</t>
         </is>
       </c>
     </row>
@@ -494,12 +496,12 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Train Score</t>
+          <t>Train set</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Test Score</t>
+          <t>Test set</t>
         </is>
       </c>
     </row>
@@ -510,10 +512,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.16</v>
+        <v>3.19</v>
       </c>
       <c r="C2" t="n">
-        <v>3.39</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="3">
@@ -523,10 +525,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0144</v>
+        <v>0.01</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0158</v>
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
@@ -535,6 +537,63 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Train set</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Test set</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>MAPE</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>22.21</v>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -589,34 +648,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.96</v>
+        <v>3.09</v>
       </c>
       <c r="C2" t="n">
-        <v>3.83</v>
+        <v>3.3</v>
       </c>
       <c r="D2" t="n">
-        <v>4.03</v>
+        <v>3.43</v>
       </c>
       <c r="E2" t="n">
-        <v>3.73</v>
+        <v>3.25</v>
       </c>
       <c r="F2" t="n">
-        <v>3.52</v>
+        <v>3.09</v>
       </c>
       <c r="G2" t="n">
-        <v>3.1</v>
+        <v>2.89</v>
       </c>
       <c r="H2" t="n">
-        <v>3.36</v>
+        <v>3.08</v>
       </c>
       <c r="I2" t="n">
-        <v>2.9</v>
+        <v>2.76</v>
       </c>
       <c r="J2" t="n">
-        <v>2.9</v>
+        <v>2.76</v>
       </c>
       <c r="K2" t="n">
-        <v>3.39</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="3">
@@ -626,34 +685,161 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0204</v>
+        <v>0.02</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0182</v>
+        <v>0.02</v>
       </c>
       <c r="D3" t="n">
-        <v>0.019</v>
+        <v>0.02</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0168</v>
+        <v>0.01</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0162</v>
+        <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>0.014</v>
+        <v>0.01</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0153</v>
+        <v>0.01</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0129</v>
+        <v>0.01</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0126</v>
+        <v>0.01</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0158</v>
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>MAPE</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>23.49</v>
+      </c>
+      <c r="C2" t="n">
+        <v>22.62</v>
+      </c>
+      <c r="D2" t="n">
+        <v>22.39</v>
+      </c>
+      <c r="E2" t="n">
+        <v>21.17</v>
+      </c>
+      <c r="F2" t="n">
+        <v>21.68</v>
+      </c>
+      <c r="G2" t="n">
+        <v>22.01</v>
+      </c>
+      <c r="H2" t="n">
+        <v>21.97</v>
+      </c>
+      <c r="I2" t="n">
+        <v>21.83</v>
+      </c>
+      <c r="J2" t="n">
+        <v>21.72</v>
+      </c>
+      <c r="K2" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.09</v>
       </c>
     </row>
   </sheetData>
